--- a/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>179,71%</t>
+          <t>135,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-45,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,65</t>
+          <t>-0,54; 4,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,35</t>
+          <t>-1,03; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 1442,22</t>
+          <t>-45,39; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 224,77</t>
+          <t>-21,54; 267,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-63,37; -16,8</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>858,01%</t>
+          <t>161,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>170,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,17</t>
+          <t>-0,49; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,02</t>
+          <t>-0,41; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,74</t>
+          <t>-1,0; 3,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,36</t>
+          <t>-3,81; 2,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 253,89</t>
+          <t>-31,51; 241,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 28,68</t>
+          <t>-32,09; 37,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 24,96</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-57,1%</t>
+          <t>-45,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,87</t>
+          <t>-2,68; 1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,32</t>
+          <t>-2,82; 0,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,35</t>
+          <t>-1,3; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,02</t>
+          <t>-1,45; 5,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 6,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -964,29 +964,29 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 147,32</t>
+          <t>-23,65; 185,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 70,27</t>
+          <t>-14,35; 81,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 41,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>339,56%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>-39,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>45,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-18,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,35</t>
+          <t>0,59; 2,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,37</t>
+          <t>-1,33; 0,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,93</t>
+          <t>-2,2; 3,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -0,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 1636,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 114,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 142,67</t>
+          <t>-53,02; 249,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 33,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-32,03; -2,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>340,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54,07%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 1,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 0,53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 2,63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 2,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 1682,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-64,58; 178,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 120,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; 39,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>135,39%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>61,45%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4557073208550044</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.698501939855502</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.316500321109999</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.345779495768256</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.623045712547458</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 4,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 5,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-45,39; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-21,54; 267,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.578745142222153</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.053920601307305</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.4617103023457353</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2156056871532904</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>2.340281254140312</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.583198205821054</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.817500954235389</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>2.659049752412571</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>161,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>170,36%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>52,35%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-4,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 2,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 1,74</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 3,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 2,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-31,51; 241,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-32,09; 37,77</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.6050541152190442</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4344461553977642</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.221827859752691</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.6334240128202842</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>1.615814496215252</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.608696863077945</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5242531075599947</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.06353163506022151</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,31%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-45,81%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>45,02%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>21,9%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4886094941239321</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5485787249100934</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.9703645511232272</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.229697123713775</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.337090802326978</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3515154569551183</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 0,7</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 4,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 5,66</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-23,65; 185,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,35; 81,01</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.157398591580334</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.493907939096055</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.242426078070678</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.71174157311484</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>2.530202857939441</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3464471027144827</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +833,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-39,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>45,2%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.110410036207601</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5271460614994068</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.96591464482492</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.806296137621717</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.09307831235194405</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3881369878293153</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4829802387529851</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.202962970827294</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 2,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 0,52</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 3,83</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-53,02; 249,71</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.6790822193324</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.367772341883276</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.148025676742225</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.634792440925035</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.2160047423018448</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1537792134574211</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.479024407310564</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8251510324024105</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.964268095853545</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.408739380546416</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.977034015630383</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.8015873525452737</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>340,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-9,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>54,07%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,59%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 1,35</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 0,53</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 2,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 2,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,98; 1682,64</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-64,58; 178,29</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 120,16</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-13,74; 39,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.2552005787202404</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.07902078421072894</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.562534334419744</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6253523114963605</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.4337759590793911</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1269197352291447</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.583541172104877</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.07520944967319786</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7421864921028097</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6712740994608544</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1367521086345858</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.422213745927782</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.8474275148930577</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7345502593648419</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.03366419895978873</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1558673439892485</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.080604940597829</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8228977545024453</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.01640098677411</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.718784991762858</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>4.995301111543482</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.590837031967729</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.451179623523297</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3850978498177416</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
